--- a/data/SlopeSeaOto2016_FullRead_2_retakes.xlsx
+++ b/data/SlopeSeaOto2016_FullRead_2_retakes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrissy/JointProgram/SlopeSea/2016_data/SlopeSeaBluefinTuna/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AFB219-1200-F34F-9001-EF5987F59B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E587734B-F6B6-0C44-A17B-AB5A2D1C04C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="1560" windowWidth="25040" windowHeight="14500" xr2:uid="{A2898F5B-F63B-334E-BD9B-C1E7362E0634}"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="23280" windowHeight="13880" xr2:uid="{A2898F5B-F63B-334E-BD9B-C1E7362E0634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <t>HB1603Stn53-6B3I-F6-O1.tif</t>
   </si>
   <si>
-    <t>HB1603Stn51-6B3I-F1-O1.tif</t>
-  </si>
-  <si>
     <t>HB1603Stn51-2N3-F14-O1.tif</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>HB1603Stn50-2N3-F16-O1.tif</t>
+  </si>
+  <si>
+    <t>HB1603Stn53-6B3I-F1-O1.tif</t>
   </si>
 </sst>
 </file>
@@ -630,11 +630,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B79B52-04C9-EB4F-A7D7-419F1A438979}">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:AB58"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1550,36 +1553,33 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>63</v>
       </c>
       <c r="C37">
-        <v>16.660299999999999</v>
+        <v>15.546099999999999</v>
       </c>
       <c r="D37">
-        <v>13.5824</v>
-      </c>
-      <c r="E37">
-        <v>15.156700000000001</v>
+        <v>14.6799</v>
       </c>
       <c r="AB37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>64</v>
       </c>
       <c r="C38">
-        <v>15.546099999999999</v>
+        <v>13.425800000000001</v>
       </c>
       <c r="D38">
-        <v>14.6799</v>
+        <v>12.2212</v>
       </c>
       <c r="AB38">
         <v>1</v>
@@ -1587,111 +1587,117 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>65</v>
       </c>
       <c r="C39">
-        <v>13.425800000000001</v>
+        <v>18.513500000000001</v>
       </c>
       <c r="D39">
-        <v>12.2212</v>
+        <v>11.787100000000001</v>
+      </c>
+      <c r="E39">
+        <v>12.9693</v>
+      </c>
+      <c r="F39">
+        <v>14.5189</v>
+      </c>
+      <c r="G39">
+        <v>16.251899999999999</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>66</v>
       </c>
       <c r="C40">
-        <v>18.513500000000001</v>
+        <v>17.989100000000001</v>
       </c>
       <c r="D40">
-        <v>11.787100000000001</v>
+        <v>9.1526999999999994</v>
       </c>
       <c r="E40">
-        <v>12.9693</v>
+        <v>10.1791</v>
       </c>
       <c r="F40">
-        <v>14.5189</v>
+        <v>11.7287</v>
       </c>
       <c r="G40">
-        <v>16.251899999999999</v>
+        <v>14.209099999999999</v>
+      </c>
+      <c r="H40">
+        <v>16.2851</v>
       </c>
       <c r="AB40">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
       </c>
       <c r="C41">
-        <v>17.989100000000001</v>
+        <v>10.268599999999999</v>
       </c>
       <c r="D41">
-        <v>9.1526999999999994</v>
-      </c>
-      <c r="E41">
-        <v>10.1791</v>
-      </c>
-      <c r="F41">
-        <v>11.7287</v>
-      </c>
-      <c r="G41">
-        <v>14.209099999999999</v>
-      </c>
-      <c r="H41">
-        <v>16.2851</v>
+        <v>9.8317999999999994</v>
       </c>
       <c r="AB41">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>68</v>
       </c>
       <c r="C42">
-        <v>10.268599999999999</v>
+        <v>13.7928</v>
       </c>
       <c r="D42">
-        <v>9.8317999999999994</v>
+        <v>9.3361000000000001</v>
+      </c>
+      <c r="E42">
+        <v>10.187900000000001</v>
+      </c>
+      <c r="F42">
+        <v>11.4443</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>69</v>
       </c>
       <c r="C43">
-        <v>13.7928</v>
+        <v>16.324999999999999</v>
       </c>
       <c r="D43">
-        <v>9.3361000000000001</v>
+        <v>12.1013</v>
       </c>
       <c r="E43">
-        <v>10.187900000000001</v>
+        <v>13.754300000000001</v>
       </c>
       <c r="F43">
-        <v>11.4443</v>
+        <v>15.1386</v>
       </c>
       <c r="AB43">
         <v>3</v>
@@ -1699,22 +1705,22 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>70</v>
       </c>
       <c r="C44">
-        <v>16.324999999999999</v>
+        <v>15.385199999999999</v>
       </c>
       <c r="D44">
-        <v>12.1013</v>
+        <v>11.942500000000001</v>
       </c>
       <c r="E44">
-        <v>13.754300000000001</v>
+        <v>13.4542</v>
       </c>
       <c r="F44">
-        <v>15.1386</v>
+        <v>14.461600000000001</v>
       </c>
       <c r="AB44">
         <v>3</v>
@@ -1722,88 +1728,88 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>71</v>
       </c>
       <c r="C45">
-        <v>15.385199999999999</v>
+        <v>11.289300000000001</v>
       </c>
       <c r="D45">
-        <v>11.942500000000001</v>
-      </c>
-      <c r="E45">
-        <v>13.4542</v>
-      </c>
-      <c r="F45">
-        <v>14.461600000000001</v>
+        <v>10.5525</v>
       </c>
       <c r="AB45">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>72</v>
       </c>
       <c r="C46">
-        <v>11.289300000000001</v>
+        <v>16.433399999999999</v>
       </c>
       <c r="D46">
-        <v>10.5525</v>
+        <v>10.517099999999999</v>
+      </c>
+      <c r="E46">
+        <v>11.773899999999999</v>
+      </c>
+      <c r="F46">
+        <v>12.9536</v>
+      </c>
+      <c r="G46">
+        <v>14.921900000000001</v>
       </c>
       <c r="AB46">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>73</v>
       </c>
       <c r="C47">
-        <v>16.433399999999999</v>
+        <v>15.9255</v>
       </c>
       <c r="D47">
-        <v>10.517099999999999</v>
+        <v>9.4997000000000007</v>
       </c>
       <c r="E47">
-        <v>11.773899999999999</v>
+        <v>12.4603</v>
       </c>
       <c r="F47">
-        <v>12.9536</v>
-      </c>
-      <c r="G47">
-        <v>14.921900000000001</v>
+        <v>13.9802</v>
       </c>
       <c r="AB47">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>74</v>
       </c>
       <c r="C48">
-        <v>15.9255</v>
+        <v>14.540100000000001</v>
       </c>
       <c r="D48">
-        <v>9.4997000000000007</v>
+        <v>10.7606</v>
       </c>
       <c r="E48">
-        <v>12.4603</v>
+        <v>11.965299999999999</v>
       </c>
       <c r="F48">
-        <v>13.9802</v>
+        <v>13.396699999999999</v>
       </c>
       <c r="AB48">
         <v>3</v>
@@ -1811,205 +1817,208 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>75</v>
       </c>
       <c r="C49">
-        <v>14.540100000000001</v>
+        <v>18.381900000000002</v>
       </c>
       <c r="D49">
-        <v>10.7606</v>
+        <v>11.6106</v>
       </c>
       <c r="E49">
-        <v>11.965299999999999</v>
+        <v>12.6782</v>
       </c>
       <c r="F49">
-        <v>13.396699999999999</v>
+        <v>14.4156</v>
+      </c>
+      <c r="G49">
+        <v>16.037800000000001</v>
       </c>
       <c r="AB49">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>76</v>
       </c>
       <c r="C50">
-        <v>18.381900000000002</v>
+        <v>17.192399999999999</v>
       </c>
       <c r="D50">
-        <v>11.6106</v>
+        <v>12.2546</v>
       </c>
       <c r="E50">
-        <v>12.6782</v>
+        <v>13.404400000000001</v>
       </c>
       <c r="F50">
-        <v>14.4156</v>
-      </c>
-      <c r="G50">
-        <v>16.037800000000001</v>
+        <v>15.2187</v>
       </c>
       <c r="AB50">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>77</v>
       </c>
       <c r="C51">
-        <v>17.192399999999999</v>
+        <v>33.382599999999996</v>
       </c>
       <c r="D51">
-        <v>12.2546</v>
+        <v>9.6972000000000005</v>
       </c>
       <c r="E51">
-        <v>13.404400000000001</v>
+        <v>10.592599999999999</v>
       </c>
       <c r="F51">
-        <v>15.2187</v>
+        <v>11.9452</v>
+      </c>
+      <c r="G51">
+        <v>13.4026</v>
+      </c>
+      <c r="H51">
+        <v>15.4903</v>
+      </c>
+      <c r="I51">
+        <v>17.905100000000001</v>
+      </c>
+      <c r="J51">
+        <v>20.499199999999998</v>
+      </c>
+      <c r="K51">
+        <v>23.117100000000001</v>
+      </c>
+      <c r="L51">
+        <v>27.8245</v>
+      </c>
+      <c r="M51">
+        <v>31.2029</v>
       </c>
       <c r="AB51">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>78</v>
       </c>
       <c r="C52">
-        <v>33.382599999999996</v>
+        <v>31.442699999999999</v>
       </c>
       <c r="D52">
-        <v>9.6972000000000005</v>
+        <v>9.9777000000000005</v>
       </c>
       <c r="E52">
-        <v>10.592599999999999</v>
+        <v>10.783099999999999</v>
       </c>
       <c r="F52">
-        <v>11.9452</v>
+        <v>12.3826</v>
       </c>
       <c r="G52">
-        <v>13.4026</v>
+        <v>13.6578</v>
       </c>
       <c r="H52">
-        <v>15.4903</v>
+        <v>15.5817</v>
       </c>
       <c r="I52">
-        <v>17.905100000000001</v>
+        <v>17.595199999999998</v>
       </c>
       <c r="J52">
-        <v>20.499199999999998</v>
+        <v>19.854600000000001</v>
       </c>
       <c r="K52">
-        <v>23.117100000000001</v>
+        <v>22.091799999999999</v>
       </c>
       <c r="L52">
-        <v>27.8245</v>
+        <v>24.4072</v>
       </c>
       <c r="M52">
-        <v>31.2029</v>
+        <v>26.879100000000001</v>
+      </c>
+      <c r="N52">
+        <v>28.9147</v>
       </c>
       <c r="AB52">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>79</v>
       </c>
       <c r="C53">
-        <v>31.442699999999999</v>
+        <v>13.1173</v>
       </c>
       <c r="D53">
-        <v>9.9777000000000005</v>
-      </c>
-      <c r="E53">
-        <v>10.783099999999999</v>
-      </c>
-      <c r="F53">
-        <v>12.3826</v>
-      </c>
-      <c r="G53">
-        <v>13.6578</v>
-      </c>
-      <c r="H53">
-        <v>15.5817</v>
-      </c>
-      <c r="I53">
-        <v>17.595199999999998</v>
-      </c>
-      <c r="J53">
-        <v>19.854600000000001</v>
-      </c>
-      <c r="K53">
-        <v>22.091799999999999</v>
-      </c>
-      <c r="L53">
-        <v>24.4072</v>
-      </c>
-      <c r="M53">
-        <v>26.879100000000001</v>
-      </c>
-      <c r="N53">
-        <v>28.9147</v>
+        <v>11.949400000000001</v>
       </c>
       <c r="AB53">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>80</v>
       </c>
       <c r="C54">
-        <v>13.1173</v>
+        <v>18.747900000000001</v>
       </c>
       <c r="D54">
-        <v>11.949400000000001</v>
+        <v>11.308199999999999</v>
+      </c>
+      <c r="E54">
+        <v>12.146599999999999</v>
+      </c>
+      <c r="F54">
+        <v>13.5998</v>
+      </c>
+      <c r="G54">
+        <v>15.785600000000001</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>81</v>
       </c>
       <c r="C55">
-        <v>18.747900000000001</v>
+        <v>20.0791</v>
       </c>
       <c r="D55">
-        <v>11.308199999999999</v>
+        <v>11.7873</v>
       </c>
       <c r="E55">
-        <v>12.146599999999999</v>
+        <v>13.245799999999999</v>
       </c>
       <c r="F55">
-        <v>13.5998</v>
+        <v>15.098800000000001</v>
       </c>
       <c r="G55">
-        <v>15.785600000000001</v>
+        <v>17.166499999999999</v>
       </c>
       <c r="AB55">
         <v>4</v>
@@ -2017,45 +2026,51 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>82</v>
       </c>
       <c r="C56">
-        <v>20.0791</v>
+        <v>13.534700000000001</v>
       </c>
       <c r="D56">
-        <v>11.7873</v>
-      </c>
-      <c r="E56">
-        <v>13.245799999999999</v>
-      </c>
-      <c r="F56">
-        <v>15.098800000000001</v>
-      </c>
-      <c r="G56">
-        <v>17.166499999999999</v>
+        <v>12.5943</v>
       </c>
       <c r="AB56">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>83</v>
       </c>
       <c r="C57">
-        <v>13.534700000000001</v>
+        <v>19.5304</v>
       </c>
       <c r="D57">
-        <v>12.5943</v>
+        <v>9.0930999999999997</v>
+      </c>
+      <c r="E57">
+        <v>10.045199999999999</v>
+      </c>
+      <c r="F57">
+        <v>11.5563</v>
+      </c>
+      <c r="G57">
+        <v>13.504200000000001</v>
+      </c>
+      <c r="H57">
+        <v>16.203299999999999</v>
+      </c>
+      <c r="I57">
+        <v>18.875800000000002</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
